--- a/Ódor Artúr/OKTV/2023.24/NBI_noi_kezilabda.xlsx
+++ b/Ódor Artúr/OKTV/2023.24/NBI_noi_kezilabda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c21c437aeb2245f/Dokumentumok/fakt2025/Ódor Artúr/OKTV/2023.24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Artúr\fakt2025\Ódor Artúr\OKTV\2023.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{C143CCCE-72B1-45E2-BD06-761B184A72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD177F9E-0A60-4E1B-98EC-EE9C0352C15F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B322F4-54F6-41F5-B150-B620458932D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{063815B5-8AB5-44A7-8EAB-C1522DAD13C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{063815B5-8AB5-44A7-8EAB-C1522DAD13C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Mérkőzések" sheetId="2" r:id="rId1"/>
@@ -21,30 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -259,7 +248,7 @@
     <numFmt numFmtId="165" formatCode="&quot;Hazai&quot;;\-\1\=&quot;Vendég&quot;;0\=&quot;Döntetlen&quot;;&quot;–&quot;"/>
     <numFmt numFmtId="166" formatCode="&quot;Hazai&quot;;&quot;Vendég&quot;;&quot;Döntetlen&quot;;&quot;–&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,26 +922,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C3839-1FF3-4E62-8ECE-2F73440DF1A8}">
   <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="32" customFormat="1" ht="15">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -987,7 +976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
@@ -1024,7 +1013,7 @@
       </c>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="20" t="s">
         <v>36</v>
       </c>
@@ -1061,7 +1050,7 @@
       </c>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
@@ -1098,7 +1087,7 @@
       </c>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1159,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -1206,7 +1195,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="20" t="s">
         <v>36</v>
       </c>
@@ -1242,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1278,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="20" t="s">
         <v>37</v>
       </c>
@@ -1314,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="20" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
@@ -1494,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="20" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="20" t="s">
         <v>38</v>
       </c>
@@ -1566,7 +1555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="20" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1638,7 +1627,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="20" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="20" t="s">
         <v>38</v>
       </c>
@@ -1710,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="20" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
@@ -1854,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="20" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
@@ -1962,7 +1951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="20" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
@@ -2034,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="20" t="s">
         <v>40</v>
       </c>
@@ -2070,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="20" t="s">
         <v>40</v>
       </c>
@@ -2106,7 +2095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="20" t="s">
         <v>40</v>
       </c>
@@ -2142,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
@@ -2178,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="20" t="s">
         <v>40</v>
       </c>
@@ -2214,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="20" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="20" t="s">
         <v>41</v>
       </c>
@@ -2286,7 +2275,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="20" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="20" t="s">
         <v>41</v>
       </c>
@@ -2358,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="20" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="20" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="20" t="s">
         <v>41</v>
       </c>
@@ -2466,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="20" t="s">
         <v>41</v>
       </c>
@@ -2502,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="20" t="s">
         <v>42</v>
       </c>
@@ -2538,7 +2527,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="20" t="s">
         <v>42</v>
       </c>
@@ -2574,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="20" t="s">
         <v>42</v>
       </c>
@@ -2610,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="20" t="s">
         <v>42</v>
       </c>
@@ -2646,7 +2635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="20" t="s">
         <v>42</v>
       </c>
@@ -2682,7 +2671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="20" t="s">
         <v>42</v>
       </c>
@@ -2718,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="20" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="20" t="s">
         <v>43</v>
       </c>
@@ -2778,7 +2767,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="20" t="s">
         <v>43</v>
       </c>
@@ -2802,7 +2791,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="20" t="s">
         <v>43</v>
       </c>
@@ -2826,7 +2815,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="20" t="s">
         <v>43</v>
       </c>
@@ -2850,7 +2839,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="20" t="s">
         <v>43</v>
       </c>
@@ -2874,7 +2863,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="20" t="s">
         <v>43</v>
       </c>
@@ -2898,7 +2887,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="20" t="s">
         <v>43</v>
       </c>
@@ -2922,7 +2911,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="20" t="s">
         <v>44</v>
       </c>
@@ -2946,7 +2935,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="20" t="s">
         <v>44</v>
       </c>
@@ -2970,7 +2959,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="20" t="s">
         <v>44</v>
       </c>
@@ -2994,7 +2983,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="20" t="s">
         <v>44</v>
       </c>
@@ -3018,7 +3007,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="20" t="s">
         <v>44</v>
       </c>
@@ -3042,7 +3031,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="20" t="s">
         <v>44</v>
       </c>
@@ -3066,7 +3055,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="20" t="s">
         <v>44</v>
       </c>
@@ -3090,7 +3079,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="20" t="s">
         <v>45</v>
       </c>
@@ -3114,7 +3103,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="20" t="s">
         <v>45</v>
       </c>
@@ -3138,7 +3127,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="20" t="s">
         <v>45</v>
       </c>
@@ -3162,7 +3151,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="20" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3175,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="20" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3199,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
         <v>45</v>
       </c>
@@ -3234,7 +3223,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="20" t="s">
         <v>45</v>
       </c>
@@ -3258,7 +3247,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="20" t="s">
         <v>46</v>
       </c>
@@ -3294,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="20" t="s">
         <v>46</v>
       </c>
@@ -3330,7 +3319,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="20" t="s">
         <v>46</v>
       </c>
@@ -3354,7 +3343,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="20" t="s">
         <v>46</v>
       </c>
@@ -3378,7 +3367,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="20" t="s">
         <v>46</v>
       </c>
@@ -3402,7 +3391,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="20" t="s">
         <v>46</v>
       </c>
@@ -3426,7 +3415,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="20" t="s">
         <v>46</v>
       </c>
@@ -3450,7 +3439,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="20" t="s">
         <v>47</v>
       </c>
@@ -3474,7 +3463,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="20" t="s">
         <v>47</v>
       </c>
@@ -3498,7 +3487,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="20" t="s">
         <v>47</v>
       </c>
@@ -3522,7 +3511,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="20" t="s">
         <v>47</v>
       </c>
@@ -3546,7 +3535,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="20" t="s">
         <v>47</v>
       </c>
@@ -3570,7 +3559,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="20" t="s">
         <v>47</v>
       </c>
@@ -3594,7 +3583,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="20" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +3619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="20" t="s">
         <v>48</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="20" t="s">
         <v>48</v>
       </c>
@@ -3678,7 +3667,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="20" t="s">
         <v>48</v>
       </c>
@@ -3702,7 +3691,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="20" t="s">
         <v>48</v>
       </c>
@@ -3726,7 +3715,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="20" t="s">
         <v>48</v>
       </c>
@@ -3750,7 +3739,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="20" t="s">
         <v>48</v>
       </c>
@@ -3774,7 +3763,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="20" t="s">
         <v>48</v>
       </c>
@@ -3798,7 +3787,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="20" t="s">
         <v>49</v>
       </c>
@@ -3822,7 +3811,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="20" t="s">
         <v>49</v>
       </c>
@@ -3846,7 +3835,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="20" t="s">
         <v>49</v>
       </c>
@@ -3870,7 +3859,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="20" t="s">
         <v>49</v>
       </c>
@@ -3894,7 +3883,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="20" t="s">
         <v>49</v>
       </c>
@@ -3918,7 +3907,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="20" t="s">
         <v>49</v>
       </c>
@@ -3942,7 +3931,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="20" t="s">
         <v>49</v>
       </c>
@@ -3966,7 +3955,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="20" t="s">
         <v>50</v>
       </c>
@@ -3990,7 +3979,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="20" t="s">
         <v>50</v>
       </c>
@@ -4014,7 +4003,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="20" t="s">
         <v>50</v>
       </c>
@@ -4038,7 +4027,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="20" t="s">
         <v>50</v>
       </c>
@@ -4062,7 +4051,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="20" t="s">
         <v>50</v>
       </c>
@@ -4086,7 +4075,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="20" t="s">
         <v>50</v>
       </c>
@@ -4110,7 +4099,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="20" t="s">
         <v>50</v>
       </c>
@@ -4134,7 +4123,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="20" t="s">
         <v>51</v>
       </c>
@@ -4158,7 +4147,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="20" t="s">
         <v>51</v>
       </c>
@@ -4182,7 +4171,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="20" t="s">
         <v>51</v>
       </c>
@@ -4206,7 +4195,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="20" t="s">
         <v>51</v>
       </c>
@@ -4230,7 +4219,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="20" t="s">
         <v>51</v>
       </c>
@@ -4254,7 +4243,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="20" t="s">
         <v>51</v>
       </c>
@@ -4278,7 +4267,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="20" t="s">
         <v>51</v>
       </c>
@@ -4302,7 +4291,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="20" t="s">
         <v>52</v>
       </c>
@@ -4326,7 +4315,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="20" t="s">
         <v>52</v>
       </c>
@@ -4350,7 +4339,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="20" t="s">
         <v>52</v>
       </c>
@@ -4374,7 +4363,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="20" t="s">
         <v>52</v>
       </c>
@@ -4398,7 +4387,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="20" t="s">
         <v>52</v>
       </c>
@@ -4422,7 +4411,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="20" t="s">
         <v>52</v>
       </c>
@@ -4446,7 +4435,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="20" t="s">
         <v>52</v>
       </c>
@@ -4470,7 +4459,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="20" t="s">
         <v>53</v>
       </c>
@@ -4494,7 +4483,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="20" t="s">
         <v>53</v>
       </c>
@@ -4518,7 +4507,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="20" t="s">
         <v>53</v>
       </c>
@@ -4542,7 +4531,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="20" t="s">
         <v>53</v>
       </c>
@@ -4566,7 +4555,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="20" t="s">
         <v>53</v>
       </c>
@@ -4590,7 +4579,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="20" t="s">
         <v>53</v>
       </c>
@@ -4614,7 +4603,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="20" t="s">
         <v>53</v>
       </c>
@@ -4638,7 +4627,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="20" t="s">
         <v>54</v>
       </c>
@@ -4662,7 +4651,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="20" t="s">
         <v>54</v>
       </c>
@@ -4686,7 +4675,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="20" t="s">
         <v>54</v>
       </c>
@@ -4710,7 +4699,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="20" t="s">
         <v>54</v>
       </c>
@@ -4734,7 +4723,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="20" t="s">
         <v>54</v>
       </c>
@@ -4758,7 +4747,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="20" t="s">
         <v>54</v>
       </c>
@@ -4782,7 +4771,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="20" t="s">
         <v>54</v>
       </c>
@@ -4806,7 +4795,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="20" t="s">
         <v>55</v>
       </c>
@@ -4830,7 +4819,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="20" t="s">
         <v>55</v>
       </c>
@@ -4854,7 +4843,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="20" t="s">
         <v>55</v>
       </c>
@@ -4878,7 +4867,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="20" t="s">
         <v>55</v>
       </c>
@@ -4902,7 +4891,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="20" t="s">
         <v>55</v>
       </c>
@@ -4926,7 +4915,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="20" t="s">
         <v>55</v>
       </c>
@@ -4950,7 +4939,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="20" t="s">
         <v>55</v>
       </c>
@@ -4974,7 +4963,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="20" t="s">
         <v>56</v>
       </c>
@@ -4998,7 +4987,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="20" t="s">
         <v>56</v>
       </c>
@@ -5022,7 +5011,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="20" t="s">
         <v>56</v>
       </c>
@@ -5046,7 +5035,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="20" t="s">
         <v>56</v>
       </c>
@@ -5070,7 +5059,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="20" t="s">
         <v>56</v>
       </c>
@@ -5094,7 +5083,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="20" t="s">
         <v>56</v>
       </c>
@@ -5118,7 +5107,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="20" t="s">
         <v>56</v>
       </c>
@@ -5142,7 +5131,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="20" t="s">
         <v>57</v>
       </c>
@@ -5166,7 +5155,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="20" t="s">
         <v>57</v>
       </c>
@@ -5190,7 +5179,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="20" t="s">
         <v>57</v>
       </c>
@@ -5214,7 +5203,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="20" t="s">
         <v>57</v>
       </c>
@@ -5238,7 +5227,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="20" t="s">
         <v>57</v>
       </c>
@@ -5262,7 +5251,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="20" t="s">
         <v>57</v>
       </c>
@@ -5286,7 +5275,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="20" t="s">
         <v>57</v>
       </c>
@@ -5310,7 +5299,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="20" t="s">
         <v>58</v>
       </c>
@@ -5334,7 +5323,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="20" t="s">
         <v>58</v>
       </c>
@@ -5358,7 +5347,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="20" t="s">
         <v>58</v>
       </c>
@@ -5382,7 +5371,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="20" t="s">
         <v>58</v>
       </c>
@@ -5406,7 +5395,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="20" t="s">
         <v>58</v>
       </c>
@@ -5430,7 +5419,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="20" t="s">
         <v>58</v>
       </c>
@@ -5454,7 +5443,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="20" t="s">
         <v>58</v>
       </c>
@@ -5478,7 +5467,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="20" t="s">
         <v>59</v>
       </c>
@@ -5502,7 +5491,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="20" t="s">
         <v>59</v>
       </c>
@@ -5526,7 +5515,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="20" t="s">
         <v>59</v>
       </c>
@@ -5550,7 +5539,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="20" t="s">
         <v>59</v>
       </c>
@@ -5574,7 +5563,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="20" t="s">
         <v>59</v>
       </c>
@@ -5598,7 +5587,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="20" t="s">
         <v>59</v>
       </c>
@@ -5622,7 +5611,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="20" t="s">
         <v>59</v>
       </c>
@@ -5646,7 +5635,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="20" t="s">
         <v>60</v>
       </c>
@@ -5670,7 +5659,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="20" t="s">
         <v>60</v>
       </c>
@@ -5694,7 +5683,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="20" t="s">
         <v>60</v>
       </c>
@@ -5718,7 +5707,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="20" t="s">
         <v>60</v>
       </c>
@@ -5742,7 +5731,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="20" t="s">
         <v>60</v>
       </c>
@@ -5766,7 +5755,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="20" t="s">
         <v>60</v>
       </c>
@@ -5790,7 +5779,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="20" t="s">
         <v>60</v>
       </c>
@@ -5814,7 +5803,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="20" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5827,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="20" t="s">
         <v>61</v>
       </c>
@@ -5862,7 +5851,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="20" t="s">
         <v>61</v>
       </c>
@@ -5886,7 +5875,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="20" t="s">
         <v>61</v>
       </c>
@@ -5910,7 +5899,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="20" t="s">
         <v>61</v>
       </c>
@@ -5934,7 +5923,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="20" t="s">
         <v>61</v>
       </c>
@@ -5958,7 +5947,7 @@
         <v>–</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="23" t="s">
         <v>61</v>
       </c>
@@ -5992,19 +5981,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73893ABA-EE8A-433A-B5E7-93BE8C2B63D2}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickTop="1">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="17" t="s">
         <v>15</v>
@@ -6052,7 +6041,7 @@
       <c r="I2" s="18"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -6072,7 +6061,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -6092,7 +6081,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -6112,7 +6101,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -6132,7 +6121,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -6152,7 +6141,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +6161,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -6192,7 +6181,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -6212,7 +6201,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -6232,7 +6221,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -6252,7 +6241,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -6272,7 +6261,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -6292,7 +6281,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -6312,7 +6301,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" thickTop="1" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -6332,7 +6321,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
